--- a/Sujeto_4/Carbohidrates.xlsx
+++ b/Sujeto_4/Carbohidrates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/Estudios/Magíster/Tesis/Páncreas_artificial/BaseDatos/GitHub/Sujeto_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DA6879-C321-1F43-8FE5-8899E22177A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747AEB22-80DF-2E46-AD11-288126B4FCD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Value</t>
+    <t>Value (g)</t>
+  </si>
+  <si>
+    <t>30.5</t>
+  </si>
+  <si>
+    <t>26.76</t>
+  </si>
+  <si>
+    <t>51.3</t>
+  </si>
+  <si>
+    <t>43.97</t>
+  </si>
+  <si>
+    <t>25.46</t>
+  </si>
+  <si>
+    <t>61.71</t>
+  </si>
+  <si>
+    <t>5.88</t>
+  </si>
+  <si>
+    <t>49.64</t>
+  </si>
+  <si>
+    <t>37.6</t>
+  </si>
+  <si>
+    <t>134.83</t>
+  </si>
+  <si>
+    <t>83.99</t>
+  </si>
+  <si>
+    <t>40.02</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>31.1</t>
+  </si>
+  <si>
+    <t>97.93</t>
+  </si>
+  <si>
+    <t>12.73</t>
+  </si>
+  <si>
+    <t>61.51</t>
+  </si>
+  <si>
+    <t>35.5</t>
+  </si>
+  <si>
+    <t>50.97</t>
+  </si>
+  <si>
+    <t>18.08</t>
+  </si>
+  <si>
+    <t>64.8</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>21.3</t>
   </si>
 </sst>
 </file>
@@ -87,12 +159,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +507,13 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -451,56 +527,56 @@
       <c r="A2" s="2">
         <v>44258.677083333343</v>
       </c>
-      <c r="B2">
-        <v>30.5</v>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44258.916666666657</v>
       </c>
-      <c r="B3">
-        <v>26.76</v>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44258.979166666657</v>
       </c>
-      <c r="B4">
-        <v>51.3</v>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44259.458333333343</v>
       </c>
-      <c r="B5">
-        <v>29.385000000000002</v>
+      <c r="B5" s="3">
+        <v>29385</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44259.625</v>
       </c>
-      <c r="B6">
-        <v>43.97</v>
+      <c r="B6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44259.652777777781</v>
       </c>
-      <c r="B7">
-        <v>25.46</v>
+      <c r="B7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44259.770833333343</v>
       </c>
-      <c r="B8">
-        <v>61.71</v>
+      <c r="B8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -523,8 +599,8 @@
       <c r="A11" s="2">
         <v>44260.208333333343</v>
       </c>
-      <c r="B11">
-        <v>5.88</v>
+      <c r="B11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -539,48 +615,48 @@
       <c r="A13" s="2">
         <v>44260.5625</v>
       </c>
-      <c r="B13">
-        <v>49.64</v>
+      <c r="B13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44260.604166666657</v>
       </c>
-      <c r="B14">
-        <v>25.46</v>
+      <c r="B14" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44260.708333333343</v>
       </c>
-      <c r="B15">
-        <v>37.6</v>
+      <c r="B15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44260.8125</v>
       </c>
-      <c r="B16">
-        <v>134.83000000000001</v>
+      <c r="B16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44261.416666666657</v>
       </c>
-      <c r="B17">
-        <v>16.175000000000001</v>
+      <c r="B17" s="3">
+        <v>16175</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44261.5625</v>
       </c>
-      <c r="B18">
-        <v>83.990000000000009</v>
+      <c r="B18" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -595,8 +671,8 @@
       <c r="A20" s="2">
         <v>44261.791666666657</v>
       </c>
-      <c r="B20">
-        <v>40.020000000000003</v>
+      <c r="B20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -619,56 +695,56 @@
       <c r="A23" s="2">
         <v>44262.375</v>
       </c>
-      <c r="B23">
-        <v>13.2</v>
+      <c r="B23" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44262.479166666657</v>
       </c>
-      <c r="B24">
-        <v>31.1</v>
+      <c r="B24" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44262.552083333343</v>
       </c>
-      <c r="B25">
-        <v>97.93</v>
+      <c r="B25" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44262.635416666657</v>
       </c>
-      <c r="B26">
-        <v>12.73</v>
+      <c r="B26" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44262.84375</v>
       </c>
-      <c r="B27">
-        <v>61.51</v>
+      <c r="B27" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44263.333333333343</v>
       </c>
-      <c r="B28">
-        <v>28.175000000000001</v>
+      <c r="B28" s="3">
+        <v>28175</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44263.479166666657</v>
       </c>
-      <c r="B29">
-        <v>35.5</v>
+      <c r="B29" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -691,64 +767,64 @@
       <c r="A32" s="2">
         <v>44264.395833333343</v>
       </c>
-      <c r="B32">
-        <v>50.97</v>
+      <c r="B32" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>44264.552083333343</v>
       </c>
-      <c r="B33">
-        <v>43.97</v>
+      <c r="B33" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>44264.708333333343</v>
       </c>
-      <c r="B34">
-        <v>18.079999999999998</v>
+      <c r="B34" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>44264.875</v>
       </c>
-      <c r="B35">
-        <v>64.8</v>
+      <c r="B35" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>44265.010416666657</v>
       </c>
-      <c r="B36">
-        <v>2.8</v>
+      <c r="B36" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>44265.409722222219</v>
       </c>
-      <c r="B37">
-        <v>9.8000000000000007</v>
+      <c r="B37" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>44265.5</v>
       </c>
-      <c r="B38">
-        <v>21.3</v>
+      <c r="B38" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>44265.541666666657</v>
       </c>
-      <c r="B39">
-        <v>43.97</v>
+      <c r="B39" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Sujeto_4/Carbohidrates.xlsx
+++ b/Sujeto_4/Carbohidrates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/Estudios/Magíster/Tesis/Páncreas_artificial/BaseDatos/GitHub/Sujeto_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747AEB22-80DF-2E46-AD11-288126B4FCD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551126FB-A3F9-AE46-A6BC-3C2E7E932995}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -37,6 +37,9 @@
     <t>51.3</t>
   </si>
   <si>
+    <t>29.39</t>
+  </si>
+  <si>
     <t>43.97</t>
   </si>
   <si>
@@ -46,9 +49,18 @@
     <t>61.71</t>
   </si>
   <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
     <t>5.88</t>
   </si>
   <si>
+    <t>56.0</t>
+  </si>
+  <si>
     <t>49.64</t>
   </si>
   <si>
@@ -58,12 +70,21 @@
     <t>134.83</t>
   </si>
   <si>
+    <t>16.18</t>
+  </si>
+  <si>
     <t>83.99</t>
   </si>
   <si>
+    <t>37.0</t>
+  </si>
+  <si>
     <t>40.02</t>
   </si>
   <si>
+    <t>0.0</t>
+  </si>
+  <si>
     <t>13.2</t>
   </si>
   <si>
@@ -79,7 +100,16 @@
     <t>61.51</t>
   </si>
   <si>
+    <t>28.17</t>
+  </si>
+  <si>
     <t>35.5</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>120.0</t>
   </si>
   <si>
     <t>50.97</t>
@@ -159,13 +189,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,9 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -551,8 +578,8 @@
       <c r="A5" s="2">
         <v>44259.458333333343</v>
       </c>
-      <c r="B5" s="3">
-        <v>29385</v>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -560,7 +587,7 @@
         <v>44259.625</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -568,7 +595,7 @@
         <v>44259.652777777781</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -576,23 +603,23 @@
         <v>44259.770833333343</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44259.895833333343</v>
       </c>
-      <c r="B9">
-        <v>41</v>
+      <c r="B9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44260.0625</v>
       </c>
-      <c r="B10">
-        <v>15</v>
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -600,15 +627,15 @@
         <v>44260.208333333343</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44260.395833333343</v>
       </c>
-      <c r="B12">
-        <v>56</v>
+      <c r="B12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -616,7 +643,7 @@
         <v>44260.5625</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -624,7 +651,7 @@
         <v>44260.604166666657</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -632,7 +659,7 @@
         <v>44260.708333333343</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -640,15 +667,15 @@
         <v>44260.8125</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44261.416666666657</v>
       </c>
-      <c r="B17" s="3">
-        <v>16175</v>
+      <c r="B17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -656,15 +683,15 @@
         <v>44261.5625</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44261.75</v>
       </c>
-      <c r="B19">
-        <v>37</v>
+      <c r="B19" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -672,23 +699,23 @@
         <v>44261.791666666657</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44261.875</v>
       </c>
-      <c r="B21">
-        <v>0</v>
+      <c r="B21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44262.010416666657</v>
       </c>
-      <c r="B22">
-        <v>15</v>
+      <c r="B22" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -696,7 +723,7 @@
         <v>44262.375</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -704,7 +731,7 @@
         <v>44262.479166666657</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -712,7 +739,7 @@
         <v>44262.552083333343</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -720,7 +747,7 @@
         <v>44262.635416666657</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -728,15 +755,15 @@
         <v>44262.84375</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44263.333333333343</v>
       </c>
-      <c r="B28" s="3">
-        <v>28175</v>
+      <c r="B28" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -744,23 +771,23 @@
         <v>44263.479166666657</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>44263.770833333343</v>
       </c>
-      <c r="B30">
-        <v>24</v>
+      <c r="B30" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>44263.8125</v>
       </c>
-      <c r="B31">
-        <v>120</v>
+      <c r="B31" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -768,7 +795,7 @@
         <v>44264.395833333343</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -776,7 +803,7 @@
         <v>44264.552083333343</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -784,7 +811,7 @@
         <v>44264.708333333343</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -792,7 +819,7 @@
         <v>44264.875</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -800,7 +827,7 @@
         <v>44265.010416666657</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -808,7 +835,7 @@
         <v>44265.409722222219</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -816,7 +843,7 @@
         <v>44265.5</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -824,7 +851,7 @@
         <v>44265.541666666657</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
